--- a/src/test/resources/TestData/TestData.xlsx
+++ b/src/test/resources/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -284,16 +284,16 @@
     <t>ABCDEF</t>
   </si>
   <si>
-    <t>sony12@gmail.com</t>
-  </si>
-  <si>
-    <t>sony123@gmail.com</t>
-  </si>
-  <si>
-    <t>sony1234@gmail.com</t>
-  </si>
-  <si>
-    <t>joe@gmail.com</t>
+    <t>tvs1@gmail.com</t>
+  </si>
+  <si>
+    <t>tvs12@gmail.com</t>
+  </si>
+  <si>
+    <t>tvs123@gmail.com</t>
+  </si>
+  <si>
+    <t>joe1@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1013,7 +1013,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
@@ -1056,7 +1056,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
